--- a/ControlPanel2_TestFile.xlsx
+++ b/ControlPanel2_TestFile.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>機號</t>
   </si>
@@ -53,15 +53,78 @@
     <t>入帳</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>盧xx</t>
+  </si>
+  <si>
+    <t>09C_16_01</t>
+  </si>
+  <si>
+    <t>3234567</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Colon lesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> right hemicolectomy (lap...</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>王曼玲</t>
+  </si>
+  <si>
+    <t>15/4h</t>
+  </si>
+  <si>
     <t>PCEA</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>吳xx</t>
+  </si>
+  <si>
+    <t>09B_09_02</t>
+  </si>
+  <si>
+    <t>4234567</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Liver tumor</t>
+  </si>
+  <si>
+    <t>Extended right lobectomy</t>
+  </si>
+  <si>
+    <t>4|3|20'|35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mar:265mg+fen:0.5mg /400ML  </t>
+  </si>
+  <si>
     <t>painless</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>陳xx</t>
   </si>
   <si>
@@ -80,58 +143,19 @@
     <t>pregnancy</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>林怡萱</t>
   </si>
   <si>
     <t>PIB:8ml/60min|     5ml|15'|80/4h</t>
   </si>
   <si>
-    <t xml:space="preserve">mar:265mg+fen:0.5mg /400ML  </t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>黃xx</t>
-  </si>
-  <si>
-    <t>08B_15_01</t>
-  </si>
-  <si>
-    <t>7234567</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Thymic tumor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right VATs </t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>蕭柏妮</t>
-  </si>
-  <si>
-    <t>2mg10'</t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
-    <t>88888</t>
-  </si>
-  <si>
     <t>789</t>
+  </si>
+  <si>
+    <t>456</t>
   </si>
 </sst>
 </file>
@@ -504,7 +528,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="SheetJS"/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -579,42 +603,42 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -626,63 +650,104 @@
         <v>34</v>
       </c>
       <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
         <v>16</v>
       </c>
-      <c r="N4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" t="s">
-        <v>16</v>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
